--- a/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Background_Soil_Surface_mass_flows.xlsx
+++ b/Results/2024-03-13/2024-03-13_PE_MP_Emissions_freeMP_5000.0_nm_/Compartment_mass_flows/Background_Soil_Surface_mass_flows.xlsx
@@ -454,13 +454,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>0.03143874111901828</v>
+        <v>1.133510123900368E-29</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.09189592974318077</v>
+        <v>3.313267739150016E-29</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -469,7 +469,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.169998959447462E-17</v>
+        <v>3.306203202392766E-44</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -480,13 +480,13 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>0.006993734467085519</v>
+        <v>1.714860579195604E-30</v>
       </c>
       <c r="D3">
-        <v>0.000691083974860171</v>
+        <v>1.694534831110598E-31</v>
       </c>
       <c r="E3">
-        <v>0.02044279472885655</v>
+        <v>5.012564170700179E-30</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.039920668039417E-17</v>
+        <v>5.001876400613398E-45</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -506,13 +506,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>0.003654462528177737</v>
+        <v>7.464415303555643E-31</v>
       </c>
       <c r="D4">
-        <v>0.003611147237340113</v>
+        <v>7.375941740805077E-31</v>
       </c>
       <c r="E4">
-        <v>0.01068205086415988</v>
+        <v>2.181860214162712E-30</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -521,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.065927463630453E-17</v>
+        <v>2.177208060187951E-45</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -532,13 +532,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0.0006066417420704157</v>
+        <v>1.238912770834886E-31</v>
       </c>
       <c r="D5">
-        <v>0.005994513923844045</v>
+        <v>1.224228294916093E-30</v>
       </c>
       <c r="E5">
-        <v>0.001773223256540003</v>
+        <v>3.621361317094852E-31</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.769442396717957E-18</v>
+        <v>3.613639864393157E-46</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -558,13 +558,13 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.001694965724599664</v>
+        <v>3.413061473587765E-31</v>
       </c>
       <c r="D6">
-        <v>0.1674875784490893</v>
+        <v>3.372607439859073E-29</v>
       </c>
       <c r="E6">
-        <v>0.004954411200984311</v>
+        <v>9.976431823354519E-31</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.94384742443637E-18</v>
+        <v>9.95516011370984E-46</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -584,13 +584,13 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>1.827728817116313E-22</v>
+        <v>2.060554648301047E-22</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>5.342479787325287E-21</v>
+        <v>6.023033316614253E-21</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>5.331088572426939E-36</v>
+        <v>6.010191028092687E-36</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -610,13 +610,13 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>5.396961149228556E-23</v>
+        <v>4.532909392242179E-23</v>
       </c>
       <c r="D8">
-        <v>5.334769596512426E-25</v>
+        <v>4.480674687260957E-25</v>
       </c>
       <c r="E8">
-        <v>1.577540146148417E-21</v>
+        <v>1.324976472387133E-21</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -625,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.574176521103324E-36</v>
+        <v>1.322151362637907E-36</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -636,13 +636,13 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>3.271310797200467E-23</v>
+        <v>3.012955742384946E-23</v>
       </c>
       <c r="D9">
-        <v>3.232537970887034E-24</v>
+        <v>2.97724503896003E-24</v>
       </c>
       <c r="E9">
-        <v>9.562092389436935E-22</v>
+        <v>8.806916542024883E-22</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>9.54170413274304E-37</v>
+        <v>8.788138468374511E-37</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -662,13 +662,13 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>1.214318242749655E-23</v>
+        <v>1.458839299422834E-23</v>
       </c>
       <c r="D10">
-        <v>1.199925279082118E-23</v>
+        <v>1.441548098241648E-23</v>
       </c>
       <c r="E10">
-        <v>3.549471128603179E-22</v>
+        <v>4.264209984071335E-22</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.541902959885475E-37</v>
+        <v>4.255117851909135E-37</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -688,13 +688,13 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>6.165947785480282E-22</v>
+        <v>8.732879137029968E-22</v>
       </c>
       <c r="D11">
-        <v>6.092864583901134E-21</v>
+        <v>8.629370838137006E-21</v>
       </c>
       <c r="E11">
-        <v>1.802316137117359E-20</v>
+        <v>2.552634167488112E-20</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1.798473245567002E-35</v>
+        <v>2.547191450713084E-35</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -714,13 +714,13 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.501532188648226E-27</v>
+        <v>2.805123917720582E-28</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>2.194500981969512E-26</v>
+        <v>4.09971044145638E-27</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.189821875398148E-41</v>
+        <v>4.090969054587602E-42</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -740,13 +740,13 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>4.845911112213701E-29</v>
+        <v>6.652664023666119E-29</v>
       </c>
       <c r="D13">
-        <v>3.591355443585322E-29</v>
+        <v>4.93035893611825E-29</v>
       </c>
       <c r="E13">
-        <v>7.082336812148967E-28</v>
+        <v>9.722920256402719E-28</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.067235880779779E-43</v>
+        <v>9.702189083148129E-43</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -766,13 +766,13 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>3.091399899822025E-29</v>
+        <v>4.237491458612639E-29</v>
       </c>
       <c r="D14">
-        <v>9.16427528399563E-29</v>
+        <v>1.256179708181464E-28</v>
       </c>
       <c r="E14">
-        <v>4.518105017733481E-28</v>
+        <v>6.193126752337267E-28</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -781,7 +781,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.508471531554945E-43</v>
+        <v>6.179921791244863E-43</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -792,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>4.626852398719858E-29</v>
+        <v>6.190931699776104E-29</v>
       </c>
       <c r="D15">
-        <v>1.165862971022176E-27</v>
+        <v>1.559975854620591E-27</v>
       </c>
       <c r="E15">
-        <v>6.762180797176025E-28</v>
+        <v>9.048094870810476E-28</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -807,7 +807,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.747762501233218E-43</v>
+        <v>9.028802557653097E-43</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -818,13 +818,13 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>1.378376092087871E-29</v>
+        <v>1.920184818978827E-29</v>
       </c>
       <c r="D16">
-        <v>3.411906687055053E-27</v>
+        <v>4.753050681785765E-27</v>
       </c>
       <c r="E16">
-        <v>2.014507388172139E-28</v>
+        <v>2.806365060082766E-28</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.010212063250663E-43</v>
+        <v>2.800381339272355E-43</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -844,13 +844,13 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>6.392286653492967E-21</v>
+        <v>8.887315919527002E-21</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>3.736950681223745E-19</v>
+        <v>5.19555255889208E-19</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>3.728982769323481E-34</v>
+        <v>5.184474621666297E-34</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -870,13 +870,13 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>1.404443048711791E-21</v>
+        <v>1.950626549100046E-21</v>
       </c>
       <c r="D18">
-        <v>4.163441169624389E-23</v>
+        <v>5.782590393063401E-23</v>
       </c>
       <c r="E18">
-        <v>8.210417792755917E-20</v>
+        <v>1.140342354248047E-19</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>8.192911571449401E-35</v>
+        <v>1.1379109206569E-34</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -896,13 +896,13 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>9.666632305335641E-22</v>
+        <v>1.340817957344596E-21</v>
       </c>
       <c r="D19">
-        <v>1.146247001030578E-22</v>
+        <v>1.589911061048499E-22</v>
       </c>
       <c r="E19">
-        <v>5.651143344584561E-20</v>
+        <v>7.838463527535912E-20</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -911,7 +911,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>5.63909399843406E-35</v>
+        <v>7.821750385686154E-35</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -922,13 +922,13 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>2.88365644526646E-20</v>
+        <v>3.84528841497945E-20</v>
       </c>
       <c r="D20">
-        <v>2.906466843568894E-20</v>
+        <v>3.8757055475326E-20</v>
       </c>
       <c r="E20">
-        <v>1.685794536711729E-18</v>
+        <v>2.247967580428696E-18</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -937,7 +937,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.682200092070552E-33</v>
+        <v>2.2431744725813E-33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -948,13 +948,13 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>5.229484821632814E-20</v>
+        <v>7.28507801551406E-20</v>
       </c>
       <c r="D21">
-        <v>5.177836248091384E-19</v>
+        <v>7.213127546113547E-19</v>
       </c>
       <c r="E21">
-        <v>3.057173109715188E-18</v>
+        <v>4.258879291335796E-18</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -963,7 +963,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.050654616943939E-33</v>
+        <v>4.249798525256189E-33</v>
       </c>
     </row>
   </sheetData>
@@ -1001,7 +1001,7 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>2.66067771791582E-17</v>
+        <v>1.95867390043894E-29</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>5.91882613967472E-18</v>
+        <v>1.224324327194767E-30</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1029,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>3.092786605199471E-18</v>
+        <v>4.844281975649409E-32</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>5.134033909401847E-19</v>
+        <v>2.395198377953042E-32</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>8</v>
       </c>
       <c r="C6">
-        <v>0.1741369553746733</v>
+        <v>3.506502372828496E-29</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>9</v>
       </c>
       <c r="C7">
-        <v>1.250898162686543E-21</v>
+        <v>1.779432161708033E-22</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>7.140974274715776E-22</v>
+        <v>7.197628934176793E-23</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>3.804685759383084E-22</v>
+        <v>4.797827665511482E-23</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>9</v>
       </c>
       <c r="C10">
-        <v>7.444631888357911E-23</v>
+        <v>2.395633047692827E-23</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.473262073362277E-20</v>
+        <v>3.502900042672115E-20</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -1141,7 +1141,7 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>2.02769546139357E-26</v>
+        <v>4.989268435796452E-30</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>1.826373090216091E-30</v>
+        <v>3.604966370603483E-31</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1169,7 +1169,7 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>3.990701584483859E-33</v>
+        <v>5.321535305480493E-33</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>10</v>
       </c>
       <c r="C15">
-        <v>1.717754240374226E-27</v>
+        <v>2.289042124610113E-27</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>3.627141186793146E-27</v>
+        <v>5.052889035983831E-27</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -1211,7 +1211,7 @@
         <v>11</v>
       </c>
       <c r="C17">
-        <v>1.010695863098772E-22</v>
+        <v>1.32088838608534E-22</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -1225,7 +1225,7 @@
         <v>11</v>
       </c>
       <c r="C18">
-        <v>1.24656294071988E-23</v>
+        <v>1.486803801464846E-23</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>11</v>
       </c>
       <c r="C19">
-        <v>1.4252084306386E-24</v>
+        <v>1.757782607967625E-24</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>11</v>
       </c>
       <c r="C20">
-        <v>1.717806588359627E-18</v>
+        <v>2.289111882323251E-18</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1267,7 +1267,7 @@
         <v>11</v>
       </c>
       <c r="C21">
-        <v>3.627251582740657E-18</v>
+        <v>5.053042826102296E-18</v>
       </c>
       <c r="D21">
         <v>0</v>
